--- a/rawdata/7_applications_deferred.xlsx
+++ b/rawdata/7_applications_deferred.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uzh-my.sharepoint.com/personal/elenamaria_goedde_uzh_ch/Documents/Desktop/Files for Coding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrstein\Documents\pwicloud_MyDrive\ECOSOC\ECOSOC_Status\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{C9158C48-A3BC-4049-9A97-A369EA393DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26DE4CF8-CE5D-4AE9-9C45-36969541F5A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BD8DD1-F084-4362-83CF-480A4E77CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="910" yWindow="80" windowWidth="16270" windowHeight="9570" xr2:uid="{4F68E04B-6215-45AF-A827-44D185392EE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4F68E04B-6215-45AF-A827-44D185392EE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4911" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4912" uniqueCount="1764">
   <si>
     <t>NGO_name</t>
   </si>
@@ -5326,6 +5326,9 @@
   </si>
   <si>
     <t>At its 1997 session, the Committee had decided to defer further consideration of the application of the Program for Research and Documentation for a Sustainable Society (PROSUS) to its 1998 session.</t>
+  </si>
+  <si>
+    <t>info</t>
   </si>
 </sst>
 </file>
@@ -5394,7 +5397,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D124-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5406,13 +5409,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4049</xdr:row>
-          <xdr:rowOff>78133</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>2774950</xdr:colOff>
           <xdr:row>4056</xdr:row>
-          <xdr:rowOff>34511</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5452,14 +5455,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5497,7 +5496,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5603,7 +5602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5745,7 +5744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5756,8 +5755,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:C4903"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4889" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A4905" sqref="A4905"/>
+    <sheetView tabSelected="1" topLeftCell="A4878" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C4903" sqref="C4903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5765,15 +5764,18 @@
     <col min="1" max="1" width="74.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -5781,7 +5783,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5799,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -5813,7 +5815,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -5845,7 +5847,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -5853,7 +5855,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
